--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +537,10 @@
         <v>0.163767</v>
       </c>
       <c r="I2">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J2">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +555,22 @@
         <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8178057326420413</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P2">
-        <v>0.8654277364307374</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q2">
-        <v>0.08010422613400001</v>
+        <v>0.08010422613399998</v>
       </c>
       <c r="R2">
-        <v>0.7209380352060001</v>
+        <v>0.7209380352059999</v>
       </c>
       <c r="S2">
-        <v>0.3666897786728685</v>
+        <v>0.7088174531119162</v>
       </c>
       <c r="T2">
-        <v>0.4754681735631557</v>
+        <v>0.7897582444166475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +599,10 @@
         <v>0.163767</v>
       </c>
       <c r="I3">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J3">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,33 +611,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.296209</v>
+        <v>0.2308085</v>
       </c>
       <c r="N3">
-        <v>0.592418</v>
+        <v>0.461617</v>
       </c>
       <c r="O3">
-        <v>0.1650813873325899</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P3">
-        <v>0.1164628759322743</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q3">
-        <v>0.016169753101</v>
+        <v>0.0125996052065</v>
       </c>
       <c r="R3">
-        <v>0.097018518606</v>
+        <v>0.075597631239</v>
       </c>
       <c r="S3">
-        <v>0.07401960510650202</v>
+        <v>0.1114899987642014</v>
       </c>
       <c r="T3">
-        <v>0.06398499675525782</v>
+        <v>0.08281412495084969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,55 +646,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.054589</v>
+        <v>0.011958</v>
       </c>
       <c r="H4">
-        <v>0.163767</v>
+        <v>0.023916</v>
       </c>
       <c r="I4">
-        <v>0.4483824997022501</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J4">
-        <v>0.5494025134023524</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.030706</v>
+        <v>1.467406</v>
       </c>
       <c r="N4">
-        <v>0.09211799999999999</v>
+        <v>4.402218</v>
       </c>
       <c r="O4">
-        <v>0.01711288002536893</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P4">
-        <v>0.01810938763698814</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q4">
-        <v>0.001676209834</v>
+        <v>0.017547240948</v>
       </c>
       <c r="R4">
-        <v>0.015085888506</v>
+        <v>0.105283445688</v>
       </c>
       <c r="S4">
-        <v>0.007673115922879625</v>
+        <v>0.1552700929548498</v>
       </c>
       <c r="T4">
-        <v>0.00994934308393877</v>
+        <v>0.1153337251916964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,170 +717,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H5">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I5">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J5">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.467406</v>
+        <v>0.2308085</v>
       </c>
       <c r="N5">
-        <v>4.402218</v>
+        <v>0.461617</v>
       </c>
       <c r="O5">
-        <v>0.8178057326420413</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P5">
-        <v>0.8654277364307374</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q5">
-        <v>0.09854731844500003</v>
+        <v>0.002760008043</v>
       </c>
       <c r="R5">
-        <v>0.5912839106700001</v>
+        <v>0.011040032172</v>
       </c>
       <c r="S5">
-        <v>0.4511159539691728</v>
+        <v>0.0244224551690326</v>
       </c>
       <c r="T5">
-        <v>0.3899595628675818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.06715750000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.134315</v>
-      </c>
-      <c r="I6">
-        <v>0.5516175002977499</v>
-      </c>
-      <c r="J6">
-        <v>0.4505974865976476</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.296209</v>
-      </c>
-      <c r="N6">
-        <v>0.592418</v>
-      </c>
-      <c r="O6">
-        <v>0.1650813873325899</v>
-      </c>
-      <c r="P6">
-        <v>0.1164628759322743</v>
-      </c>
-      <c r="Q6">
-        <v>0.0198926559175</v>
-      </c>
-      <c r="R6">
-        <v>0.07957062367000001</v>
-      </c>
-      <c r="S6">
-        <v>0.09106178222608786</v>
-      </c>
-      <c r="T6">
-        <v>0.05247787917701646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.06715750000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.134315</v>
-      </c>
-      <c r="I7">
-        <v>0.5516175002977499</v>
-      </c>
-      <c r="J7">
-        <v>0.4505974865976476</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.030706</v>
-      </c>
-      <c r="N7">
-        <v>0.09211799999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.01711288002536893</v>
-      </c>
-      <c r="P7">
-        <v>0.01810938763698814</v>
-      </c>
-      <c r="Q7">
-        <v>0.002062138195</v>
-      </c>
-      <c r="R7">
-        <v>0.01237282917</v>
-      </c>
-      <c r="S7">
-        <v>0.009439764102489302</v>
-      </c>
-      <c r="T7">
-        <v>0.00816004455304937</v>
+        <v>0.01209390544080627</v>
       </c>
     </row>
   </sheetData>
